--- a/manga_data.xlsx
+++ b/manga_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook BlueAutomata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661296B-33CF-4957-863B-41BCBA4995DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8321114-EC7C-4203-BC09-A9E35AD341F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A9C0FA58-2F2A-439D-ADBD-849A6096B984}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>Diablo Maou</t>
+  </si>
+  <si>
+    <t>ghli</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF20870-90B1-497D-8068-BEE06F7544DF}">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,8 +1756,8 @@
         <v>400</v>
       </c>
       <c r="F2" t="str">
-        <f>LOWER(LEFT(E2,3))</f>
-        <v>map</v>
+        <f>LOWER(LEFT(E2,4))</f>
+        <v>mapp</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1774,8 +1777,8 @@
         <v>400</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">LOWER(LEFT(E3,3))</f>
-        <v>map</v>
+        <f t="shared" ref="F3:F66" si="0">LOWER(LEFT(E3,4))</f>
+        <v>mapp</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1796,7 +1799,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1817,7 +1820,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1838,7 +1841,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1859,7 +1862,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1880,7 +1883,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>ufo</v>
+        <v>ufot</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1901,7 +1904,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>ufo</v>
+        <v>ufot</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1922,7 +1925,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>ufo</v>
+        <v>ufot</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1943,7 +1946,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>ufo</v>
+        <v>ufot</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1964,7 +1967,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1985,7 +1988,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2006,7 +2009,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2027,7 +2030,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -2048,7 +2051,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2069,7 +2072,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2090,7 +2093,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2111,7 +2114,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2132,7 +2135,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2153,7 +2156,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>8bi</v>
+        <v>8bit</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2174,7 +2177,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>8bi</v>
+        <v>8bit</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2195,7 +2198,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>8bi</v>
+        <v>8bit</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2216,7 +2219,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2237,7 +2240,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2258,7 +2261,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2279,7 +2282,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2300,7 +2303,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2321,7 +2324,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2342,7 +2345,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2363,7 +2366,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2384,7 +2387,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>dog</v>
+        <v>doga</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2405,7 +2408,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2426,7 +2429,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2447,7 +2450,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2468,7 +2471,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2489,7 +2492,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -2510,7 +2513,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2531,7 +2534,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2552,7 +2555,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2573,7 +2576,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -2594,7 +2597,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2615,7 +2618,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2636,7 +2639,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2657,7 +2660,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2678,7 +2681,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2699,7 +2702,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2720,7 +2723,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2741,7 +2744,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2762,7 +2765,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>kin</v>
+        <v>kine</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2783,7 +2786,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>buf</v>
+        <v xml:space="preserve">buf </v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2804,7 +2807,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>buf</v>
+        <v xml:space="preserve">buf </v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2825,7 +2828,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>buf</v>
+        <v xml:space="preserve">buf </v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2846,7 +2849,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>buf</v>
+        <v xml:space="preserve">buf </v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2867,7 +2870,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>buf</v>
+        <v xml:space="preserve">buf </v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2888,7 +2891,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2909,7 +2912,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2930,7 +2933,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2951,7 +2954,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2972,7 +2975,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2993,7 +2996,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>tez</v>
+        <v>tezu</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3014,7 +3017,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>shi</v>
+        <v>shin</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -3035,7 +3038,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>shi</v>
+        <v>shin</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -3056,7 +3059,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>shi</v>
+        <v>shin</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -3077,7 +3080,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>shi</v>
+        <v>shin</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -3098,7 +3101,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>asa</v>
+        <v>asah</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -3118,8 +3121,8 @@
         <v>411</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">LOWER(LEFT(E67,3))</f>
-        <v>asa</v>
+        <f t="shared" ref="F67:F130" si="1">LOWER(LEFT(E67,4))</f>
+        <v>asah</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3140,7 +3143,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>asa</v>
+        <v>asah</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -3161,7 +3164,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>asa</v>
+        <v>asah</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3182,7 +3185,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>sev</v>
+        <v>seve</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -3203,7 +3206,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>sev</v>
+        <v>seve</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3224,7 +3227,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>sev</v>
+        <v>seve</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -3245,7 +3248,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3266,7 +3269,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3287,7 +3290,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -3308,7 +3311,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -3329,7 +3332,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3350,7 +3353,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3371,7 +3374,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3392,7 +3395,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3413,7 +3416,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -3434,7 +3437,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -3455,7 +3458,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -3476,7 +3479,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3497,7 +3500,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3518,7 +3521,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -3539,7 +3542,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -3560,7 +3563,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3581,7 +3584,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3602,7 +3605,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3623,7 +3626,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3644,7 +3647,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3665,7 +3668,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>clo</v>
+        <v>clov</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3686,7 +3689,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3707,7 +3710,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3728,7 +3731,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3749,7 +3752,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3770,7 +3773,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3791,7 +3794,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -3812,7 +3815,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -3833,7 +3836,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3854,7 +3857,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3875,7 +3878,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3896,7 +3899,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3917,7 +3920,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3938,7 +3941,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3959,7 +3962,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3980,7 +3983,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -4001,7 +4004,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -4022,7 +4025,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>mil</v>
+        <v>mill</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -4043,7 +4046,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -4064,7 +4067,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -4085,7 +4088,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -4106,7 +4109,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -4127,7 +4130,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -4148,7 +4151,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -4169,7 +4172,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>asr</v>
+        <v>asre</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -4190,7 +4193,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>aji</v>
+        <v>ajia</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -4211,7 +4214,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>aji</v>
+        <v>ajia</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -4232,7 +4235,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>aji</v>
+        <v>ajia</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -4253,7 +4256,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>aji</v>
+        <v>ajia</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -4274,7 +4277,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -4295,7 +4298,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -4316,7 +4319,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -4337,7 +4340,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -4358,7 +4361,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -4379,7 +4382,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -4400,7 +4403,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>pie</v>
+        <v>pier</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -4421,7 +4424,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>pie</v>
+        <v>pier</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4442,7 +4445,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
-        <v>pie</v>
+        <v>pier</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -4462,8 +4465,8 @@
         <v>422</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="2">LOWER(LEFT(E131,3))</f>
-        <v>pie</v>
+        <f t="shared" ref="F131:F194" si="2">LOWER(LEFT(E131,4))</f>
+        <v>pier</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -4484,7 +4487,7 @@
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
-        <v>pie</v>
+        <v>pier</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -4505,7 +4508,7 @@
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v>pie</v>
+        <v>pier</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -4526,7 +4529,7 @@
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v>bon</v>
+        <v>bone</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -4547,7 +4550,7 @@
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v>bon</v>
+        <v>bone</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -4568,7 +4571,7 @@
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v>bon</v>
+        <v>bone</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -4589,7 +4592,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>bon</v>
+        <v>bone</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -4610,7 +4613,7 @@
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v>bon</v>
+        <v>bone</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -4631,7 +4634,7 @@
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -4652,7 +4655,7 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -4673,7 +4676,7 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -4694,7 +4697,7 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -4715,7 +4718,7 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -4736,7 +4739,7 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -4757,7 +4760,7 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
-        <v>kyo</v>
+        <v>kyot</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -4778,7 +4781,7 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
-        <v>kyo</v>
+        <v>kyot</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -4799,7 +4802,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v>kyo</v>
+        <v>kyot</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -4820,7 +4823,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>kyo</v>
+        <v>kyot</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -4841,7 +4844,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>kyo</v>
+        <v>kyot</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -4862,7 +4865,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -4883,7 +4886,7 @@
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -4904,7 +4907,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -4925,7 +4928,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -4946,7 +4949,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -4967,7 +4970,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -4988,7 +4991,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -5009,7 +5012,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -5030,7 +5033,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -5051,7 +5054,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -5072,7 +5075,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -5093,7 +5096,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -5114,7 +5117,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5135,7 +5138,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -5156,7 +5159,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5177,7 +5180,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -5198,7 +5201,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -5219,7 +5222,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -5240,7 +5243,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -5261,7 +5264,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -5282,7 +5285,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5303,7 +5306,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -5324,7 +5327,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5345,7 +5348,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5366,7 +5369,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5387,7 +5390,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -5408,7 +5411,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -5429,7 +5432,7 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
-        <v>com</v>
+        <v>comi</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -5450,7 +5453,7 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -5471,7 +5474,7 @@
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5492,7 +5495,7 @@
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
-        <v>map</v>
+        <v>mapp</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5513,7 +5516,7 @@
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -5534,7 +5537,7 @@
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5555,7 +5558,7 @@
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5576,7 +5579,7 @@
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5597,7 +5600,7 @@
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5618,7 +5621,7 @@
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5639,7 +5642,7 @@
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
-        <v>toe</v>
+        <v>toei</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5660,7 +5663,7 @@
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
-        <v>toe</v>
+        <v>toei</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -5681,7 +5684,7 @@
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
-        <v>toe</v>
+        <v>toei</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -5702,7 +5705,7 @@
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
-        <v>toe</v>
+        <v>toei</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -5723,7 +5726,7 @@
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
-        <v>toe</v>
+        <v>toei</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -5744,7 +5747,7 @@
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
-        <v>stu</v>
+        <v>stud</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -5765,7 +5768,7 @@
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
-        <v>stu</v>
+        <v>stud</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -5786,7 +5789,7 @@
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
-        <v>stu</v>
+        <v>stud</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -5806,8 +5809,8 @@
         <v>428</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F258" si="3">LOWER(LEFT(E195,3))</f>
-        <v>whi</v>
+        <f t="shared" ref="F195:F258" si="3">LOWER(LEFT(E195,4))</f>
+        <v>whit</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -5828,7 +5831,7 @@
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -5849,7 +5852,7 @@
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5870,7 +5873,7 @@
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -5891,7 +5894,7 @@
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5910,9 +5913,8 @@
       <c r="E200" t="s">
         <v>429</v>
       </c>
-      <c r="F200" t="str">
-        <f t="shared" si="3"/>
-        <v>stu</v>
+      <c r="F200" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5931,9 +5933,8 @@
       <c r="E201" t="s">
         <v>429</v>
       </c>
-      <c r="F201" t="str">
-        <f t="shared" si="3"/>
-        <v>stu</v>
+      <c r="F201" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5952,9 +5953,8 @@
       <c r="E202" t="s">
         <v>429</v>
       </c>
-      <c r="F202" t="str">
-        <f t="shared" si="3"/>
-        <v>stu</v>
+      <c r="F202" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -5973,9 +5973,8 @@
       <c r="E203" t="s">
         <v>429</v>
       </c>
-      <c r="F203" t="str">
-        <f t="shared" si="3"/>
-        <v>stu</v>
+      <c r="F203" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -5996,7 +5995,7 @@
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
-        <v>zer</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -6017,7 +6016,7 @@
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
-        <v>zer</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -6038,7 +6037,7 @@
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
-        <v>zer</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -6059,7 +6058,7 @@
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
-        <v>zer</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -6080,7 +6079,7 @@
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
-        <v>zer</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -6101,7 +6100,7 @@
       </c>
       <c r="F209" t="str">
         <f t="shared" si="3"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -6122,7 +6121,7 @@
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -6143,7 +6142,7 @@
       </c>
       <c r="F211" t="str">
         <f t="shared" si="3"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -6164,7 +6163,7 @@
       </c>
       <c r="F212" t="str">
         <f t="shared" si="3"/>
-        <v>ler</v>
+        <v>lerc</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -6185,7 +6184,7 @@
       </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -6206,7 +6205,7 @@
       </c>
       <c r="F214" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -6227,7 +6226,7 @@
       </c>
       <c r="F215" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -6248,7 +6247,7 @@
       </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -6269,7 +6268,7 @@
       </c>
       <c r="F217" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -6290,7 +6289,7 @@
       </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -6311,7 +6310,7 @@
       </c>
       <c r="F219" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -6332,7 +6331,7 @@
       </c>
       <c r="F220" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -6353,7 +6352,7 @@
       </c>
       <c r="F221" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -6374,7 +6373,7 @@
       </c>
       <c r="F222" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -6395,7 +6394,7 @@
       </c>
       <c r="F223" t="str">
         <f t="shared" si="3"/>
-        <v>whi</v>
+        <v>whit</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -6416,7 +6415,7 @@
       </c>
       <c r="F224" t="str">
         <f t="shared" si="3"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -6437,7 +6436,7 @@
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -6458,7 +6457,7 @@
       </c>
       <c r="F226" t="str">
         <f t="shared" si="3"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -6479,7 +6478,7 @@
       </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -6500,7 +6499,7 @@
       </c>
       <c r="F228" t="str">
         <f t="shared" si="3"/>
-        <v>sil</v>
+        <v>silv</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -6668,7 +6667,7 @@
       </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -6689,7 +6688,7 @@
       </c>
       <c r="F237" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -6710,7 +6709,7 @@
       </c>
       <c r="F238" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -6731,7 +6730,7 @@
       </c>
       <c r="F239" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -6752,7 +6751,7 @@
       </c>
       <c r="F240" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -6773,7 +6772,7 @@
       </c>
       <c r="F241" t="str">
         <f t="shared" si="3"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -6794,7 +6793,7 @@
       </c>
       <c r="F242" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -6815,7 +6814,7 @@
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -6836,7 +6835,7 @@
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -6857,7 +6856,7 @@
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -6878,7 +6877,7 @@
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -6899,7 +6898,7 @@
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
-        <v>tms</v>
+        <v xml:space="preserve">tms </v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -6920,7 +6919,7 @@
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -6941,7 +6940,7 @@
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -6962,7 +6961,7 @@
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -6983,7 +6982,7 @@
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -7004,7 +7003,7 @@
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
-        <v>a-1</v>
+        <v xml:space="preserve">a-1 </v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -7025,7 +7024,7 @@
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -7046,7 +7045,7 @@
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -7067,7 +7066,7 @@
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -7088,7 +7087,7 @@
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -7109,7 +7108,7 @@
       </c>
       <c r="F257" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -7130,7 +7129,7 @@
       </c>
       <c r="F258" t="str">
         <f t="shared" si="3"/>
-        <v>tri</v>
+        <v>trig</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -7150,8 +7149,8 @@
         <v>414</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" ref="F259:F279" si="4">LOWER(LEFT(E259,3))</f>
-        <v>j.c</v>
+        <f t="shared" ref="F259:F279" si="4">LOWER(LEFT(E259,4))</f>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -7172,7 +7171,7 @@
       </c>
       <c r="F260" t="str">
         <f t="shared" si="4"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -7193,7 +7192,7 @@
       </c>
       <c r="F261" t="str">
         <f t="shared" si="4"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -7214,7 +7213,7 @@
       </c>
       <c r="F262" t="str">
         <f t="shared" si="4"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -7235,7 +7234,7 @@
       </c>
       <c r="F263" t="str">
         <f t="shared" si="4"/>
-        <v>j.c</v>
+        <v>j.c.</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -7256,7 +7255,7 @@
       </c>
       <c r="F264" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -7277,7 +7276,7 @@
       </c>
       <c r="F265" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -7298,7 +7297,7 @@
       </c>
       <c r="F266" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -7319,7 +7318,7 @@
       </c>
       <c r="F267" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -7340,7 +7339,7 @@
       </c>
       <c r="F268" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -7361,7 +7360,7 @@
       </c>
       <c r="F269" t="str">
         <f t="shared" si="4"/>
-        <v>wit</v>
+        <v xml:space="preserve">wit </v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -7382,7 +7381,7 @@
       </c>
       <c r="F270" t="str">
         <f t="shared" si="4"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -7403,7 +7402,7 @@
       </c>
       <c r="F271" t="str">
         <f t="shared" si="4"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -7424,7 +7423,7 @@
       </c>
       <c r="F272" t="str">
         <f t="shared" si="4"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -7445,7 +7444,7 @@
       </c>
       <c r="F273" t="str">
         <f t="shared" si="4"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -7466,7 +7465,7 @@
       </c>
       <c r="F274" t="str">
         <f t="shared" si="4"/>
-        <v>mad</v>
+        <v>madh</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -7487,7 +7486,7 @@
       </c>
       <c r="F275" t="str">
         <f t="shared" si="4"/>
-        <v>pro</v>
+        <v>prod</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -7508,7 +7507,7 @@
       </c>
       <c r="F276" t="str">
         <f t="shared" si="4"/>
-        <v>pro</v>
+        <v>prod</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -7529,7 +7528,7 @@
       </c>
       <c r="F277" t="str">
         <f t="shared" si="4"/>
-        <v>pro</v>
+        <v>prod</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -7550,7 +7549,7 @@
       </c>
       <c r="F278" t="str">
         <f t="shared" si="4"/>
-        <v>pro</v>
+        <v>prod</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -7571,7 +7570,7 @@
       </c>
       <c r="F279" t="str">
         <f t="shared" si="4"/>
-        <v>pro</v>
+        <v>prod</v>
       </c>
     </row>
   </sheetData>

--- a/manga_data.xlsx
+++ b/manga_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook BlueAutomata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8321114-EC7C-4203-BC09-A9E35AD341F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254EB76F-E380-4011-B5EC-D6A4AF10F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A9C0FA58-2F2A-439D-ADBD-849A6096B984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A9C0FA58-2F2A-439D-ADBD-849A6096B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1143,12 +1143,6 @@
     <t>Smasher Adam</t>
   </si>
   <si>
-    <t>Cyberpunk: Edgerunners</t>
-  </si>
-  <si>
-    <t>CYBERPUNK: EDGERUNNERS</t>
-  </si>
-  <si>
     <t>Misaka Mikoto</t>
   </si>
   <si>
@@ -1345,6 +1339,12 @@
   </si>
   <si>
     <t>ghli</t>
+  </si>
+  <si>
+    <t>CYBERPUNK EDGERUNNERS</t>
+  </si>
+  <si>
+    <t>Cyberpunk Edgerunners</t>
   </si>
 </sst>
 </file>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF20870-90B1-497D-8068-BEE06F7544DF}">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1733,10 +1733,10 @@
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(LEFT(E2,4))</f>
@@ -1774,7 +1774,7 @@
         <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">LOWER(LEFT(E3,4))</f>
@@ -1795,7 +1795,7 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1816,7 +1816,7 @@
         <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1837,7 +1837,7 @@
         <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1858,7 +1858,7 @@
         <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1879,7 +1879,7 @@
         <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -1900,7 +1900,7 @@
         <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1921,7 +1921,7 @@
         <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1942,7 +1942,7 @@
         <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -1963,7 +1963,7 @@
         <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1984,7 +1984,7 @@
         <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +2005,7 @@
         <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2026,7 @@
         <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2047,7 +2047,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +2068,7 @@
         <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2089,7 @@
         <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2110,7 +2110,7 @@
         <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2131,7 +2131,7 @@
         <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2152,7 +2152,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2173,7 +2173,7 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -2194,7 +2194,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2215,7 +2215,7 @@
         <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2236,7 +2236,7 @@
         <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
         <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2278,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -2299,7 +2299,7 @@
         <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2320,7 +2320,7 @@
         <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -2341,7 +2341,7 @@
         <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2362,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
         <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2404,7 +2404,7 @@
         <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2425,7 @@
         <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -2446,7 +2446,7 @@
         <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2467,7 @@
         <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -2488,7 +2488,7 @@
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -2509,7 +2509,7 @@
         <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -2530,7 +2530,7 @@
         <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -2551,7 +2551,7 @@
         <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -2572,7 +2572,7 @@
         <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2593,7 @@
         <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -2614,7 +2614,7 @@
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2635,7 @@
         <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -2656,7 +2656,7 @@
         <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -2677,7 +2677,7 @@
         <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -2698,7 +2698,7 @@
         <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -2719,7 +2719,7 @@
         <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -2740,7 +2740,7 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
         <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -2782,7 +2782,7 @@
         <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -2803,7 +2803,7 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -2824,7 +2824,7 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -2845,7 +2845,7 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -2866,7 +2866,7 @@
         <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -2887,7 +2887,7 @@
         <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -2908,7 +2908,7 @@
         <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2929,7 @@
         <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -2950,7 +2950,7 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -2971,7 +2971,7 @@
         <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -2992,7 +2992,7 @@
         <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -3013,7 +3013,7 @@
         <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -3034,7 +3034,7 @@
         <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -3055,7 +3055,7 @@
         <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -3076,7 +3076,7 @@
         <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -3097,7 +3097,7 @@
         <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -3118,7 +3118,7 @@
         <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">LOWER(LEFT(E67,4))</f>
@@ -3139,7 +3139,7 @@
         <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -3160,7 +3160,7 @@
         <v>136</v>
       </c>
       <c r="E69" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -3181,7 +3181,7 @@
         <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -3202,7 +3202,7 @@
         <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -3223,7 +3223,7 @@
         <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -3244,7 +3244,7 @@
         <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -3265,7 +3265,7 @@
         <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -3286,7 +3286,7 @@
         <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -3307,7 +3307,7 @@
         <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -3328,7 +3328,7 @@
         <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -3349,7 +3349,7 @@
         <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -3370,7 +3370,7 @@
         <v>136</v>
       </c>
       <c r="E79" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -3391,7 +3391,7 @@
         <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -3412,7 +3412,7 @@
         <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3433,7 @@
         <v>136</v>
       </c>
       <c r="E82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
@@ -3454,7 +3454,7 @@
         <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
@@ -3475,7 +3475,7 @@
         <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
@@ -3496,7 +3496,7 @@
         <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="E86" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
@@ -3538,7 +3538,7 @@
         <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
@@ -3559,7 +3559,7 @@
         <v>136</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
@@ -3580,7 +3580,7 @@
         <v>136</v>
       </c>
       <c r="E89" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
@@ -3601,7 +3601,7 @@
         <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
@@ -3622,7 +3622,7 @@
         <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
@@ -3643,7 +3643,7 @@
         <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
@@ -3664,7 +3664,7 @@
         <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
@@ -3685,7 +3685,7 @@
         <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
@@ -3706,7 +3706,7 @@
         <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
@@ -3727,7 +3727,7 @@
         <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
@@ -3748,7 +3748,7 @@
         <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
@@ -3769,7 +3769,7 @@
         <v>142</v>
       </c>
       <c r="E98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
@@ -3790,7 +3790,7 @@
         <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
@@ -3811,7 +3811,7 @@
         <v>136</v>
       </c>
       <c r="E100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
@@ -3832,7 +3832,7 @@
         <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
@@ -3853,7 +3853,7 @@
         <v>136</v>
       </c>
       <c r="E102" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
@@ -3874,7 +3874,7 @@
         <v>136</v>
       </c>
       <c r="E103" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
@@ -3895,7 +3895,7 @@
         <v>136</v>
       </c>
       <c r="E104" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
@@ -3916,7 +3916,7 @@
         <v>137</v>
       </c>
       <c r="E105" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
@@ -3937,7 +3937,7 @@
         <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
@@ -3958,7 +3958,7 @@
         <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
@@ -3979,7 +3979,7 @@
         <v>137</v>
       </c>
       <c r="E108" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="E109" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
@@ -4021,7 +4021,7 @@
         <v>137</v>
       </c>
       <c r="E110" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
@@ -4042,7 +4042,7 @@
         <v>137</v>
       </c>
       <c r="E111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
@@ -4063,7 +4063,7 @@
         <v>137</v>
       </c>
       <c r="E112" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
@@ -4084,7 +4084,7 @@
         <v>137</v>
       </c>
       <c r="E113" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
@@ -4105,7 +4105,7 @@
         <v>137</v>
       </c>
       <c r="E114" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
@@ -4126,7 +4126,7 @@
         <v>137</v>
       </c>
       <c r="E115" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
@@ -4147,7 +4147,7 @@
         <v>137</v>
       </c>
       <c r="E116" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
@@ -4168,7 +4168,7 @@
         <v>137</v>
       </c>
       <c r="E117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B118" t="s">
         <v>181</v>
@@ -4189,7 +4189,7 @@
         <v>137</v>
       </c>
       <c r="E118" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
@@ -4210,7 +4210,7 @@
         <v>137</v>
       </c>
       <c r="E119" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
@@ -4231,7 +4231,7 @@
         <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
@@ -4252,7 +4252,7 @@
         <v>137</v>
       </c>
       <c r="E121" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
@@ -4273,7 +4273,7 @@
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
@@ -4294,7 +4294,7 @@
         <v>134</v>
       </c>
       <c r="E123" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
@@ -4315,7 +4315,7 @@
         <v>134</v>
       </c>
       <c r="E124" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
@@ -4336,7 +4336,7 @@
         <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
@@ -4357,7 +4357,7 @@
         <v>134</v>
       </c>
       <c r="E126" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
@@ -4378,7 +4378,7 @@
         <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
@@ -4399,7 +4399,7 @@
         <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
@@ -4420,7 +4420,7 @@
         <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
@@ -4441,7 +4441,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
@@ -4462,7 +4462,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="2">LOWER(LEFT(E131,4))</f>
@@ -4483,7 +4483,7 @@
         <v>134</v>
       </c>
       <c r="E132" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
@@ -4504,7 +4504,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
@@ -4525,7 +4525,7 @@
         <v>134</v>
       </c>
       <c r="E134" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
@@ -4546,7 +4546,7 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
@@ -4567,7 +4567,7 @@
         <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
@@ -4588,7 +4588,7 @@
         <v>134</v>
       </c>
       <c r="E137" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
@@ -4609,7 +4609,7 @@
         <v>134</v>
       </c>
       <c r="E138" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="E139" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
@@ -4651,7 +4651,7 @@
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
@@ -4672,7 +4672,7 @@
         <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
@@ -4693,7 +4693,7 @@
         <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
@@ -4714,7 +4714,7 @@
         <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
@@ -4735,7 +4735,7 @@
         <v>134</v>
       </c>
       <c r="E144" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
@@ -4756,7 +4756,7 @@
         <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
@@ -4777,7 +4777,7 @@
         <v>139</v>
       </c>
       <c r="E146" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
@@ -4798,7 +4798,7 @@
         <v>139</v>
       </c>
       <c r="E147" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
@@ -4819,7 +4819,7 @@
         <v>139</v>
       </c>
       <c r="E148" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
@@ -4840,7 +4840,7 @@
         <v>139</v>
       </c>
       <c r="E149" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
@@ -4861,7 +4861,7 @@
         <v>139</v>
       </c>
       <c r="E150" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
@@ -4882,7 +4882,7 @@
         <v>139</v>
       </c>
       <c r="E151" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
@@ -4903,7 +4903,7 @@
         <v>139</v>
       </c>
       <c r="E152" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
@@ -4924,7 +4924,7 @@
         <v>139</v>
       </c>
       <c r="E153" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
@@ -4945,7 +4945,7 @@
         <v>139</v>
       </c>
       <c r="E154" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
@@ -4966,7 +4966,7 @@
         <v>139</v>
       </c>
       <c r="E155" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
@@ -4987,7 +4987,7 @@
         <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
@@ -5008,7 +5008,7 @@
         <v>139</v>
       </c>
       <c r="E157" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
@@ -5029,7 +5029,7 @@
         <v>139</v>
       </c>
       <c r="E158" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
@@ -5050,7 +5050,7 @@
         <v>139</v>
       </c>
       <c r="E159" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
@@ -5071,7 +5071,7 @@
         <v>139</v>
       </c>
       <c r="E160" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
@@ -5092,7 +5092,7 @@
         <v>139</v>
       </c>
       <c r="E161" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
@@ -5113,7 +5113,7 @@
         <v>139</v>
       </c>
       <c r="E162" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
@@ -5134,7 +5134,7 @@
         <v>139</v>
       </c>
       <c r="E163" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
@@ -5155,7 +5155,7 @@
         <v>139</v>
       </c>
       <c r="E164" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
@@ -5176,7 +5176,7 @@
         <v>139</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
@@ -5197,7 +5197,7 @@
         <v>139</v>
       </c>
       <c r="E166" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
@@ -5218,7 +5218,7 @@
         <v>139</v>
       </c>
       <c r="E167" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
@@ -5239,7 +5239,7 @@
         <v>139</v>
       </c>
       <c r="E168" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
@@ -5260,7 +5260,7 @@
         <v>139</v>
       </c>
       <c r="E169" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
@@ -5281,7 +5281,7 @@
         <v>139</v>
       </c>
       <c r="E170" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
@@ -5302,7 +5302,7 @@
         <v>139</v>
       </c>
       <c r="E171" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
@@ -5323,7 +5323,7 @@
         <v>139</v>
       </c>
       <c r="E172" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
@@ -5344,7 +5344,7 @@
         <v>139</v>
       </c>
       <c r="E173" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
@@ -5365,7 +5365,7 @@
         <v>139</v>
       </c>
       <c r="E174" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
@@ -5386,7 +5386,7 @@
         <v>139</v>
       </c>
       <c r="E175" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
@@ -5407,7 +5407,7 @@
         <v>139</v>
       </c>
       <c r="E176" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
@@ -5428,7 +5428,7 @@
         <v>139</v>
       </c>
       <c r="E177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
@@ -5449,7 +5449,7 @@
         <v>135</v>
       </c>
       <c r="E178" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
@@ -5470,7 +5470,7 @@
         <v>135</v>
       </c>
       <c r="E179" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
@@ -5491,7 +5491,7 @@
         <v>135</v>
       </c>
       <c r="E180" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
@@ -5512,7 +5512,7 @@
         <v>135</v>
       </c>
       <c r="E181" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
@@ -5533,7 +5533,7 @@
         <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
@@ -5554,7 +5554,7 @@
         <v>135</v>
       </c>
       <c r="E183" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
@@ -5575,7 +5575,7 @@
         <v>135</v>
       </c>
       <c r="E184" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
@@ -5596,7 +5596,7 @@
         <v>135</v>
       </c>
       <c r="E185" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
@@ -5617,7 +5617,7 @@
         <v>135</v>
       </c>
       <c r="E186" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
@@ -5638,7 +5638,7 @@
         <v>135</v>
       </c>
       <c r="E187" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
@@ -5659,7 +5659,7 @@
         <v>135</v>
       </c>
       <c r="E188" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
@@ -5680,7 +5680,7 @@
         <v>135</v>
       </c>
       <c r="E189" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
@@ -5701,7 +5701,7 @@
         <v>135</v>
       </c>
       <c r="E190" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
@@ -5722,7 +5722,7 @@
         <v>135</v>
       </c>
       <c r="E191" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
@@ -5743,7 +5743,7 @@
         <v>135</v>
       </c>
       <c r="E192" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
@@ -5764,7 +5764,7 @@
         <v>135</v>
       </c>
       <c r="E193" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
@@ -5785,7 +5785,7 @@
         <v>135</v>
       </c>
       <c r="E194" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
@@ -5806,7 +5806,7 @@
         <v>135</v>
       </c>
       <c r="E195" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F258" si="3">LOWER(LEFT(E195,4))</f>
@@ -5827,7 +5827,7 @@
         <v>135</v>
       </c>
       <c r="E196" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
@@ -5848,7 +5848,7 @@
         <v>135</v>
       </c>
       <c r="E197" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
@@ -5869,7 +5869,7 @@
         <v>135</v>
       </c>
       <c r="E198" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
@@ -5890,7 +5890,7 @@
         <v>135</v>
       </c>
       <c r="E199" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
@@ -5911,10 +5911,10 @@
         <v>135</v>
       </c>
       <c r="E200" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F200" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5931,10 +5931,10 @@
         <v>135</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F201" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5951,10 +5951,10 @@
         <v>135</v>
       </c>
       <c r="E202" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F202" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -5971,10 +5971,10 @@
         <v>135</v>
       </c>
       <c r="E203" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F203" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -5991,7 +5991,7 @@
         <v>142</v>
       </c>
       <c r="E204" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
@@ -6012,7 +6012,7 @@
         <v>142</v>
       </c>
       <c r="E205" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
@@ -6033,7 +6033,7 @@
         <v>142</v>
       </c>
       <c r="E206" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
@@ -6054,7 +6054,7 @@
         <v>142</v>
       </c>
       <c r="E207" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
@@ -6075,7 +6075,7 @@
         <v>142</v>
       </c>
       <c r="E208" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
@@ -6096,7 +6096,7 @@
         <v>142</v>
       </c>
       <c r="E209" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
         <v>142</v>
       </c>
       <c r="E210" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
@@ -6138,7 +6138,7 @@
         <v>142</v>
       </c>
       <c r="E211" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="3"/>
@@ -6159,7 +6159,7 @@
         <v>142</v>
       </c>
       <c r="E212" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="3"/>
@@ -6180,7 +6180,7 @@
         <v>142</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
@@ -6201,7 +6201,7 @@
         <v>142</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="3"/>
@@ -6222,7 +6222,7 @@
         <v>142</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="3"/>
@@ -6243,7 +6243,7 @@
         <v>142</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
@@ -6264,7 +6264,7 @@
         <v>142</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="3"/>
@@ -6285,7 +6285,7 @@
         <v>142</v>
       </c>
       <c r="E218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
@@ -6306,7 +6306,7 @@
         <v>142</v>
       </c>
       <c r="E219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="3"/>
@@ -6327,7 +6327,7 @@
         <v>142</v>
       </c>
       <c r="E220" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="3"/>
@@ -6348,7 +6348,7 @@
         <v>142</v>
       </c>
       <c r="E221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="3"/>
@@ -6369,7 +6369,7 @@
         <v>142</v>
       </c>
       <c r="E222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="3"/>
@@ -6390,7 +6390,7 @@
         <v>142</v>
       </c>
       <c r="E223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="3"/>
@@ -6411,7 +6411,7 @@
         <v>142</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="3"/>
@@ -6432,7 +6432,7 @@
         <v>142</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
@@ -6453,7 +6453,7 @@
         <v>142</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="3"/>
@@ -6474,7 +6474,7 @@
         <v>142</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
@@ -6495,7 +6495,7 @@
         <v>142</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="3"/>
@@ -6516,7 +6516,7 @@
         <v>142</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="3"/>
@@ -6537,7 +6537,7 @@
         <v>142</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="3"/>
@@ -6558,7 +6558,7 @@
         <v>142</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="3"/>
@@ -6579,7 +6579,7 @@
         <v>142</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="3"/>
@@ -6600,7 +6600,7 @@
         <v>142</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="3"/>
@@ -6621,7 +6621,7 @@
         <v>142</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="3"/>
@@ -6642,7 +6642,7 @@
         <v>142</v>
       </c>
       <c r="E235" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="3"/>
@@ -6663,7 +6663,7 @@
         <v>138</v>
       </c>
       <c r="E236" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
@@ -6684,7 +6684,7 @@
         <v>138</v>
       </c>
       <c r="E237" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="3"/>
@@ -6705,7 +6705,7 @@
         <v>138</v>
       </c>
       <c r="E238" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="3"/>
@@ -6726,7 +6726,7 @@
         <v>138</v>
       </c>
       <c r="E239" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="3"/>
@@ -6747,7 +6747,7 @@
         <v>138</v>
       </c>
       <c r="E240" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="3"/>
@@ -6768,7 +6768,7 @@
         <v>138</v>
       </c>
       <c r="E241" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="3"/>
@@ -6789,7 +6789,7 @@
         <v>138</v>
       </c>
       <c r="E242" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="3"/>
@@ -6810,7 +6810,7 @@
         <v>138</v>
       </c>
       <c r="E243" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -6831,7 +6831,7 @@
         <v>138</v>
       </c>
       <c r="E244" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -6852,7 +6852,7 @@
         <v>138</v>
       </c>
       <c r="E245" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -6873,7 +6873,7 @@
         <v>138</v>
       </c>
       <c r="E246" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -6894,7 +6894,7 @@
         <v>138</v>
       </c>
       <c r="E247" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -6915,7 +6915,7 @@
         <v>138</v>
       </c>
       <c r="E248" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -6936,7 +6936,7 @@
         <v>138</v>
       </c>
       <c r="E249" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -6957,7 +6957,7 @@
         <v>138</v>
       </c>
       <c r="E250" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -6978,7 +6978,7 @@
         <v>138</v>
       </c>
       <c r="E251" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -6999,7 +6999,7 @@
         <v>138</v>
       </c>
       <c r="E252" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -7011,16 +7011,16 @@
         <v>362</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C253" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D253" t="s">
         <v>138</v>
       </c>
       <c r="E253" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -7032,16 +7032,16 @@
         <v>363</v>
       </c>
       <c r="B254" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C254" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D254" t="s">
         <v>138</v>
       </c>
       <c r="E254" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -7053,16 +7053,16 @@
         <v>364</v>
       </c>
       <c r="B255" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C255" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D255" t="s">
         <v>138</v>
       </c>
       <c r="E255" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -7074,16 +7074,16 @@
         <v>365</v>
       </c>
       <c r="B256" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C256" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D256" t="s">
         <v>138</v>
       </c>
       <c r="E256" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -7095,16 +7095,16 @@
         <v>366</v>
       </c>
       <c r="B257" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C257" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D257" t="s">
         <v>138</v>
       </c>
       <c r="E257" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="3"/>
@@ -7116,16 +7116,16 @@
         <v>367</v>
       </c>
       <c r="B258" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D258" t="s">
         <v>138</v>
       </c>
       <c r="E258" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="3"/>
@@ -7134,19 +7134,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B259" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C259" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D259" t="s">
         <v>138</v>
       </c>
       <c r="E259" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" ref="F259:F279" si="4">LOWER(LEFT(E259,4))</f>
@@ -7155,19 +7155,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D260" t="s">
         <v>138</v>
       </c>
       <c r="E260" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="4"/>
@@ -7176,19 +7176,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C261" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D261" t="s">
         <v>138</v>
       </c>
       <c r="E261" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="4"/>
@@ -7197,19 +7197,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>371</v>
+      </c>
+      <c r="B262" t="s">
+        <v>374</v>
+      </c>
+      <c r="C262" t="s">
         <v>373</v>
-      </c>
-      <c r="B262" t="s">
-        <v>376</v>
-      </c>
-      <c r="C262" t="s">
-        <v>375</v>
       </c>
       <c r="D262" t="s">
         <v>138</v>
       </c>
       <c r="E262" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="4"/>
@@ -7218,19 +7218,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>372</v>
+      </c>
+      <c r="B263" t="s">
         <v>374</v>
       </c>
-      <c r="B263" t="s">
-        <v>376</v>
-      </c>
       <c r="C263" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D263" t="s">
         <v>138</v>
       </c>
       <c r="E263" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="4"/>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D264" t="s">
         <v>138</v>
       </c>
       <c r="E264" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="4"/>
@@ -7260,19 +7260,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C265" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D265" t="s">
         <v>138</v>
       </c>
       <c r="E265" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="4"/>
@@ -7281,19 +7281,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B266" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C266" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D266" t="s">
         <v>138</v>
       </c>
       <c r="E266" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="4"/>
@@ -7302,19 +7302,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B267" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C267" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D267" t="s">
         <v>138</v>
       </c>
       <c r="E267" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="4"/>
@@ -7323,19 +7323,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>379</v>
+      </c>
+      <c r="B268" t="s">
+        <v>382</v>
+      </c>
+      <c r="C268" t="s">
         <v>381</v>
-      </c>
-      <c r="B268" t="s">
-        <v>384</v>
-      </c>
-      <c r="C268" t="s">
-        <v>383</v>
       </c>
       <c r="D268" t="s">
         <v>138</v>
       </c>
       <c r="E268" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="4"/>
@@ -7344,19 +7344,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>380</v>
+      </c>
+      <c r="B269" t="s">
         <v>382</v>
       </c>
-      <c r="B269" t="s">
-        <v>384</v>
-      </c>
       <c r="C269" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D269" t="s">
         <v>138</v>
       </c>
       <c r="E269" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="4"/>
@@ -7365,19 +7365,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B270" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C270" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D270" t="s">
         <v>138</v>
       </c>
       <c r="E270" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="4"/>
@@ -7386,19 +7386,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B271" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C271" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D271" t="s">
         <v>138</v>
       </c>
       <c r="E271" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="4"/>
@@ -7407,19 +7407,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B272" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C272" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D272" t="s">
         <v>138</v>
       </c>
       <c r="E272" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="4"/>
@@ -7428,19 +7428,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>386</v>
+      </c>
+      <c r="B273" t="s">
+        <v>389</v>
+      </c>
+      <c r="C273" t="s">
         <v>388</v>
-      </c>
-      <c r="B273" t="s">
-        <v>391</v>
-      </c>
-      <c r="C273" t="s">
-        <v>390</v>
       </c>
       <c r="D273" t="s">
         <v>138</v>
       </c>
       <c r="E273" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="4"/>
@@ -7449,19 +7449,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>387</v>
+      </c>
+      <c r="B274" t="s">
         <v>389</v>
       </c>
-      <c r="B274" t="s">
-        <v>391</v>
-      </c>
       <c r="C274" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D274" t="s">
         <v>138</v>
       </c>
       <c r="E274" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="4"/>
@@ -7470,19 +7470,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B275" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C275" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D275" t="s">
         <v>138</v>
       </c>
       <c r="E275" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="4"/>
@@ -7491,19 +7491,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B276" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D276" t="s">
         <v>138</v>
       </c>
       <c r="E276" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="4"/>
@@ -7512,19 +7512,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B277" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C277" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D277" t="s">
         <v>138</v>
       </c>
       <c r="E277" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="4"/>
@@ -7533,19 +7533,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>393</v>
+      </c>
+      <c r="B278" t="s">
+        <v>396</v>
+      </c>
+      <c r="C278" t="s">
         <v>395</v>
-      </c>
-      <c r="B278" t="s">
-        <v>398</v>
-      </c>
-      <c r="C278" t="s">
-        <v>397</v>
       </c>
       <c r="D278" t="s">
         <v>138</v>
       </c>
       <c r="E278" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="4"/>
@@ -7554,19 +7554,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>394</v>
+      </c>
+      <c r="B279" t="s">
         <v>396</v>
       </c>
-      <c r="B279" t="s">
-        <v>398</v>
-      </c>
       <c r="C279" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D279" t="s">
         <v>138</v>
       </c>
       <c r="E279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="4"/>

--- a/manga_data.xlsx
+++ b/manga_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254EB76F-E380-4011-B5EC-D6A4AF10F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC743DA8-C97A-43B8-B230-5F1E47F1CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A9C0FA58-2F2A-439D-ADBD-849A6096B984}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>Ootori Saori</t>
   </si>
   <si>
-    <t>Zom 100: Bucket List of the Dead</t>
-  </si>
-  <si>
     <t>ゾン100～ゾンビになるまでにしたい100のこと～</t>
   </si>
   <si>
@@ -1345,6 +1342,9 @@
   </si>
   <si>
     <t>Cyberpunk Edgerunners</t>
+  </si>
+  <si>
+    <t>Zom 100 Bucket List of the Dead</t>
   </si>
 </sst>
 </file>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF20870-90B1-497D-8068-BEE06F7544DF}">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1730,13 +1730,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(LEFT(E2,4))</f>
@@ -1771,10 +1771,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">LOWER(LEFT(E3,4))</f>
@@ -1792,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1813,10 +1813,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1834,10 +1834,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1855,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1876,10 +1876,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -1897,10 +1897,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1918,10 +1918,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1939,10 +1939,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -1960,10 +1960,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1981,10 +1981,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2002,10 +2002,10 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2023,10 +2023,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2044,10 +2044,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2065,10 +2065,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2086,10 +2086,10 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2107,10 +2107,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2128,10 +2128,10 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2149,10 +2149,10 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2170,10 +2170,10 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -2191,10 +2191,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2212,10 +2212,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2233,10 +2233,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2254,10 +2254,10 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -2275,10 +2275,10 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -2296,10 +2296,10 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2317,10 +2317,10 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -2338,10 +2338,10 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -2359,10 +2359,10 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -2380,10 +2380,10 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2401,10 +2401,10 @@
         <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -2422,10 +2422,10 @@
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -2443,10 +2443,10 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -2464,10 +2464,10 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -2485,10 +2485,10 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -2506,10 +2506,10 @@
         <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -2527,10 +2527,10 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -2548,10 +2548,10 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -2569,10 +2569,10 @@
         <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -2611,10 +2611,10 @@
         <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -2632,10 +2632,10 @@
         <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -2653,10 +2653,10 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -2674,10 +2674,10 @@
         <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -2695,10 +2695,10 @@
         <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -2716,10 +2716,10 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -2737,10 +2737,10 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -2758,10 +2758,10 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -2773,16 +2773,16 @@
         <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -2794,16 +2794,16 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -2815,16 +2815,16 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -2836,16 +2836,16 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -2857,16 +2857,16 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -2875,19 +2875,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -2896,19 +2896,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -2917,19 +2917,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -2938,19 +2938,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -2959,19 +2959,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -2980,19 +2980,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
         <v>84</v>
       </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
-      </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -3001,19 +3001,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -3022,19 +3022,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -3043,19 +3043,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -3064,19 +3064,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
         <v>90</v>
       </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>91</v>
-      </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -3106,19 +3106,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">LOWER(LEFT(E67,4))</f>
@@ -3127,19 +3127,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -3148,19 +3148,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
         <v>96</v>
       </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -3169,19 +3169,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -3190,19 +3190,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -3211,19 +3211,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
         <v>101</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" t="s">
-        <v>102</v>
-      </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -3232,19 +3232,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -3253,19 +3253,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -3274,19 +3274,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -3295,19 +3295,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
         <v>107</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -3316,19 +3316,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -3337,19 +3337,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -3358,19 +3358,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -3379,19 +3379,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -3400,19 +3400,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
@@ -3421,19 +3421,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
@@ -3442,19 +3442,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
@@ -3463,19 +3463,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
@@ -3484,19 +3484,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
         <v>120</v>
       </c>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
@@ -3505,19 +3505,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
@@ -3526,19 +3526,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
@@ -3568,19 +3568,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
@@ -3589,19 +3589,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
         <v>127</v>
       </c>
-      <c r="B90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" t="s">
-        <v>128</v>
-      </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
@@ -3610,19 +3610,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
@@ -3631,19 +3631,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
@@ -3652,19 +3652,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
@@ -3673,19 +3673,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
@@ -3715,19 +3715,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
@@ -3736,19 +3736,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
@@ -3757,19 +3757,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
@@ -3778,19 +3778,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" t="s">
         <v>150</v>
       </c>
-      <c r="B99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" t="s">
-        <v>151</v>
-      </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
@@ -3799,19 +3799,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
@@ -3820,19 +3820,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
@@ -3841,19 +3841,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
@@ -3862,19 +3862,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
@@ -3883,19 +3883,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" t="s">
         <v>157</v>
       </c>
-      <c r="B104" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" t="s">
-        <v>158</v>
-      </c>
       <c r="D104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
@@ -3904,19 +3904,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
@@ -3925,19 +3925,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
@@ -3946,19 +3946,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
@@ -3967,19 +3967,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E108" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
@@ -3988,19 +3988,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" t="s">
         <v>165</v>
       </c>
-      <c r="B110" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" t="s">
-        <v>166</v>
-      </c>
       <c r="D110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E110" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
@@ -4030,19 +4030,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
@@ -4051,19 +4051,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E112" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
@@ -4072,19 +4072,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
@@ -4093,19 +4093,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
@@ -4114,19 +4114,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
@@ -4135,19 +4135,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E116" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
@@ -4156,19 +4156,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
         <v>174</v>
       </c>
-      <c r="B117" t="s">
-        <v>176</v>
-      </c>
-      <c r="C117" t="s">
-        <v>175</v>
-      </c>
       <c r="D117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
@@ -4177,19 +4177,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
@@ -4198,19 +4198,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
@@ -4219,19 +4219,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
@@ -4240,19 +4240,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
         <v>179</v>
       </c>
-      <c r="B121" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" t="s">
-        <v>180</v>
-      </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
@@ -4261,19 +4261,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
@@ -4303,19 +4303,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
@@ -4324,19 +4324,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
@@ -4345,19 +4345,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
@@ -4366,19 +4366,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>186</v>
+      </c>
+      <c r="B127" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" t="s">
         <v>187</v>
       </c>
-      <c r="B127" t="s">
-        <v>189</v>
-      </c>
-      <c r="C127" t="s">
-        <v>188</v>
-      </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
@@ -4387,19 +4387,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
@@ -4408,19 +4408,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
@@ -4429,19 +4429,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
@@ -4450,19 +4450,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="2">LOWER(LEFT(E131,4))</f>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
@@ -4492,19 +4492,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
         <v>195</v>
       </c>
-      <c r="B133" t="s">
-        <v>197</v>
-      </c>
-      <c r="C133" t="s">
-        <v>196</v>
-      </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
@@ -4513,19 +4513,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
@@ -4534,19 +4534,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
@@ -4555,19 +4555,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
@@ -4576,19 +4576,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
@@ -4597,19 +4597,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" t="s">
         <v>202</v>
       </c>
-      <c r="B138" t="s">
-        <v>204</v>
-      </c>
-      <c r="C138" t="s">
-        <v>203</v>
-      </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
@@ -4618,19 +4618,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
@@ -4639,19 +4639,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
@@ -4681,19 +4681,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
@@ -4702,19 +4702,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
@@ -4723,19 +4723,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" t="s">
         <v>210</v>
       </c>
-      <c r="B144" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" t="s">
-        <v>211</v>
-      </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
@@ -4744,19 +4744,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E145" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
@@ -4765,19 +4765,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
@@ -4786,19 +4786,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
@@ -4807,19 +4807,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
@@ -4828,19 +4828,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149" t="s">
         <v>217</v>
       </c>
-      <c r="B149" t="s">
-        <v>219</v>
-      </c>
-      <c r="C149" t="s">
-        <v>218</v>
-      </c>
       <c r="D149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
@@ -4849,19 +4849,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C150" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
@@ -4870,19 +4870,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
@@ -4891,19 +4891,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
@@ -4912,19 +4912,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
@@ -4933,19 +4933,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
@@ -4954,19 +4954,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" t="s">
         <v>225</v>
       </c>
-      <c r="B155" t="s">
-        <v>227</v>
-      </c>
-      <c r="C155" t="s">
-        <v>226</v>
-      </c>
       <c r="D155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
@@ -4975,19 +4975,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
@@ -4996,19 +4996,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E157" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
@@ -5017,19 +5017,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D158" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
@@ -5038,19 +5038,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
@@ -5059,19 +5059,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E160" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" t="s">
+        <v>234</v>
+      </c>
+      <c r="C161" t="s">
         <v>233</v>
       </c>
-      <c r="B161" t="s">
-        <v>235</v>
-      </c>
-      <c r="C161" t="s">
-        <v>234</v>
-      </c>
       <c r="D161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E161" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
@@ -5101,19 +5101,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C162" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D162" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
@@ -5122,19 +5122,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
@@ -5143,19 +5143,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
@@ -5164,19 +5164,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
@@ -5185,19 +5185,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
@@ -5206,19 +5206,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" t="s">
         <v>241</v>
       </c>
-      <c r="B167" t="s">
-        <v>243</v>
-      </c>
-      <c r="C167" t="s">
-        <v>242</v>
-      </c>
       <c r="D167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E167" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
@@ -5227,19 +5227,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D168" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
@@ -5248,19 +5248,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E169" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
@@ -5269,19 +5269,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D170" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
@@ -5290,19 +5290,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C171" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D171" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E171" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
@@ -5311,19 +5311,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E172" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
@@ -5332,19 +5332,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" t="s">
+        <v>250</v>
+      </c>
+      <c r="C173" t="s">
         <v>249</v>
       </c>
-      <c r="B173" t="s">
-        <v>251</v>
-      </c>
-      <c r="C173" t="s">
-        <v>250</v>
-      </c>
       <c r="D173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E173" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
@@ -5353,19 +5353,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E174" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
@@ -5374,19 +5374,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
@@ -5395,19 +5395,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D176" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E176" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
@@ -5416,19 +5416,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" t="s">
         <v>255</v>
       </c>
-      <c r="B177" t="s">
-        <v>257</v>
-      </c>
-      <c r="C177" t="s">
-        <v>256</v>
-      </c>
       <c r="D177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E177" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
@@ -5437,19 +5437,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D178" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
@@ -5458,19 +5458,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E179" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
@@ -5479,19 +5479,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>259</v>
+      </c>
+      <c r="B180" t="s">
+        <v>261</v>
+      </c>
+      <c r="C180" t="s">
         <v>260</v>
       </c>
-      <c r="B180" t="s">
-        <v>262</v>
-      </c>
-      <c r="C180" t="s">
-        <v>261</v>
-      </c>
       <c r="D180" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E180" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
@@ -5500,19 +5500,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E181" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
@@ -5521,19 +5521,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C182" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D182" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E182" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
@@ -5542,19 +5542,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D183" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
@@ -5563,19 +5563,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D184" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E184" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
@@ -5584,19 +5584,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B185" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D185" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E185" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
@@ -5605,19 +5605,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" t="s">
         <v>268</v>
       </c>
-      <c r="B186" t="s">
-        <v>270</v>
-      </c>
-      <c r="C186" t="s">
-        <v>269</v>
-      </c>
       <c r="D186" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E186" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
@@ -5626,19 +5626,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B187" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E187" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
@@ -5647,19 +5647,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B188" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C188" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D188" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
@@ -5668,19 +5668,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C189" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E189" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
@@ -5689,19 +5689,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E190" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
@@ -5710,19 +5710,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191" t="s">
         <v>275</v>
       </c>
-      <c r="B191" t="s">
-        <v>277</v>
-      </c>
-      <c r="C191" t="s">
-        <v>276</v>
-      </c>
       <c r="D191" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E191" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
@@ -5731,19 +5731,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E192" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
@@ -5752,19 +5752,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B193" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E193" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
@@ -5773,19 +5773,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" t="s">
+        <v>281</v>
+      </c>
+      <c r="C194" t="s">
         <v>280</v>
       </c>
-      <c r="B194" t="s">
-        <v>282</v>
-      </c>
-      <c r="C194" t="s">
-        <v>281</v>
-      </c>
       <c r="D194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E194" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
@@ -5794,19 +5794,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B195" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E195" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F258" si="3">LOWER(LEFT(E195,4))</f>
@@ -5815,19 +5815,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C196" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D196" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E196" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
@@ -5836,19 +5836,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C197" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C198" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D198" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E198" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
@@ -5878,19 +5878,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" t="s">
         <v>287</v>
       </c>
-      <c r="B199" t="s">
-        <v>288</v>
-      </c>
       <c r="C199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D199" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
@@ -5899,99 +5899,99 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B200" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C200" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E200" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F200" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B201" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E201" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F201" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B202" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C202" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D202" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E202" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F202" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>291</v>
+      </c>
+      <c r="B203" t="s">
+        <v>293</v>
+      </c>
+      <c r="C203" t="s">
         <v>292</v>
       </c>
-      <c r="B203" t="s">
-        <v>294</v>
-      </c>
-      <c r="C203" t="s">
-        <v>293</v>
-      </c>
       <c r="D203" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E203" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F203" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C204" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D204" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E204" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C205" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D205" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E205" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
@@ -6021,19 +6021,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C206" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D206" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E206" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
@@ -6042,19 +6042,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C207" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D207" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E207" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
@@ -6063,19 +6063,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>298</v>
+      </c>
+      <c r="B208" t="s">
+        <v>300</v>
+      </c>
+      <c r="C208" t="s">
         <v>299</v>
       </c>
-      <c r="B208" t="s">
-        <v>301</v>
-      </c>
-      <c r="C208" t="s">
-        <v>300</v>
-      </c>
       <c r="D208" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E208" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
@@ -6084,19 +6084,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E209" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="3"/>
@@ -6105,19 +6105,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C210" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E210" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
@@ -6126,19 +6126,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C211" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="3"/>
@@ -6147,19 +6147,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>304</v>
+      </c>
+      <c r="B212" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" t="s">
         <v>305</v>
       </c>
-      <c r="B212" t="s">
-        <v>307</v>
-      </c>
-      <c r="C212" t="s">
-        <v>306</v>
-      </c>
       <c r="D212" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="3"/>
@@ -6168,19 +6168,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B213" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D213" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
@@ -6189,19 +6189,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D214" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="3"/>
@@ -6210,19 +6210,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C215" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D215" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="3"/>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B216" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
@@ -6252,19 +6252,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>311</v>
+      </c>
+      <c r="B217" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217" t="s">
         <v>312</v>
       </c>
-      <c r="B217" t="s">
-        <v>314</v>
-      </c>
-      <c r="C217" t="s">
-        <v>313</v>
-      </c>
       <c r="D217" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="3"/>
@@ -6273,19 +6273,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C218" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D218" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E218" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
@@ -6294,19 +6294,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B219" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C219" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E219" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="3"/>
@@ -6315,19 +6315,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C220" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D220" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E220" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="3"/>
@@ -6336,19 +6336,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C221" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D221" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E221" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="3"/>
@@ -6357,19 +6357,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C222" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D222" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="3"/>
@@ -6378,19 +6378,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>319</v>
+      </c>
+      <c r="B223" t="s">
+        <v>321</v>
+      </c>
+      <c r="C223" t="s">
         <v>320</v>
       </c>
-      <c r="B223" t="s">
-        <v>322</v>
-      </c>
-      <c r="C223" t="s">
-        <v>321</v>
-      </c>
       <c r="D223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E223" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="3"/>
@@ -6399,19 +6399,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C224" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D224" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="3"/>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B225" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C225" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D225" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
@@ -6441,19 +6441,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C226" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D226" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="3"/>
@@ -6462,19 +6462,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B227" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C227" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D227" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
@@ -6483,19 +6483,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>326</v>
+      </c>
+      <c r="B228" t="s">
+        <v>328</v>
+      </c>
+      <c r="C228" t="s">
         <v>327</v>
       </c>
-      <c r="B228" t="s">
-        <v>329</v>
-      </c>
-      <c r="C228" t="s">
-        <v>328</v>
-      </c>
       <c r="D228" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="3"/>
@@ -6504,19 +6504,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B229" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C229" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="3"/>
@@ -6525,19 +6525,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B230" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C230" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="3"/>
@@ -6546,19 +6546,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C231" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D231" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="3"/>
@@ -6567,19 +6567,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B232" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C232" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D232" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="3"/>
@@ -6588,19 +6588,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B233" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C233" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D233" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="3"/>
@@ -6609,19 +6609,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B234" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C234" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D234" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="3"/>
@@ -6630,19 +6630,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>335</v>
+      </c>
+      <c r="B235" t="s">
+        <v>337</v>
+      </c>
+      <c r="C235" t="s">
         <v>336</v>
       </c>
-      <c r="B235" t="s">
-        <v>338</v>
-      </c>
-      <c r="C235" t="s">
-        <v>337</v>
-      </c>
       <c r="D235" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E235" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="3"/>
@@ -6651,19 +6651,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B236" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C236" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E236" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
@@ -6672,19 +6672,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B237" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D237" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E237" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="3"/>
@@ -6693,19 +6693,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B238" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D238" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E238" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="3"/>
@@ -6714,19 +6714,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B239" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C239" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D239" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="3"/>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B240" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C240" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D240" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E240" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="3"/>
@@ -6756,19 +6756,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>343</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
         <v>344</v>
       </c>
-      <c r="B241" t="s">
-        <v>346</v>
-      </c>
-      <c r="C241" t="s">
-        <v>345</v>
-      </c>
       <c r="D241" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E241" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="3"/>
@@ -6777,19 +6777,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B242" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C242" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D242" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E242" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="3"/>
@@ -6798,19 +6798,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D243" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E243" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -6819,19 +6819,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B244" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C244" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D244" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E244" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -6840,19 +6840,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B245" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D245" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E245" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -6861,19 +6861,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B246" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C246" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D246" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E246" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -6882,19 +6882,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>351</v>
+      </c>
+      <c r="B247" t="s">
+        <v>353</v>
+      </c>
+      <c r="C247" t="s">
         <v>352</v>
       </c>
-      <c r="B247" t="s">
-        <v>354</v>
-      </c>
-      <c r="C247" t="s">
-        <v>353</v>
-      </c>
       <c r="D247" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E247" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -6903,19 +6903,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B248" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C248" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D248" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E248" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -6924,19 +6924,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B249" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C249" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E249" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -6945,19 +6945,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B250" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C250" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E250" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -6966,19 +6966,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B251" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C251" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E251" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -6987,19 +6987,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>358</v>
+      </c>
+      <c r="B252" t="s">
+        <v>360</v>
+      </c>
+      <c r="C252" t="s">
         <v>359</v>
       </c>
-      <c r="B252" t="s">
-        <v>361</v>
-      </c>
-      <c r="C252" t="s">
-        <v>360</v>
-      </c>
       <c r="D252" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E252" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -7008,19 +7008,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B253" t="s">
+        <v>433</v>
+      </c>
+      <c r="C253" t="s">
         <v>434</v>
       </c>
-      <c r="C253" t="s">
-        <v>435</v>
-      </c>
       <c r="D253" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E253" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -7029,19 +7029,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B254" t="s">
+        <v>433</v>
+      </c>
+      <c r="C254" t="s">
         <v>434</v>
       </c>
-      <c r="C254" t="s">
-        <v>435</v>
-      </c>
       <c r="D254" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E254" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -7050,19 +7050,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B255" t="s">
+        <v>433</v>
+      </c>
+      <c r="C255" t="s">
         <v>434</v>
       </c>
-      <c r="C255" t="s">
-        <v>435</v>
-      </c>
       <c r="D255" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E255" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -7071,19 +7071,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B256" t="s">
+        <v>433</v>
+      </c>
+      <c r="C256" t="s">
         <v>434</v>
       </c>
-      <c r="C256" t="s">
-        <v>435</v>
-      </c>
       <c r="D256" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E256" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -7092,19 +7092,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B257" t="s">
+        <v>433</v>
+      </c>
+      <c r="C257" t="s">
         <v>434</v>
       </c>
-      <c r="C257" t="s">
-        <v>435</v>
-      </c>
       <c r="D257" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E257" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="3"/>
@@ -7113,19 +7113,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B258" t="s">
+        <v>433</v>
+      </c>
+      <c r="C258" t="s">
         <v>434</v>
       </c>
-      <c r="C258" t="s">
-        <v>435</v>
-      </c>
       <c r="D258" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E258" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="3"/>
@@ -7134,19 +7134,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B259" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D259" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E259" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" ref="F259:F279" si="4">LOWER(LEFT(E259,4))</f>
@@ -7155,19 +7155,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B260" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C260" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E260" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="4"/>
@@ -7176,19 +7176,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B261" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D261" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E261" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="4"/>
@@ -7197,19 +7197,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B262" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D262" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E262" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="4"/>
@@ -7218,19 +7218,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>371</v>
+      </c>
+      <c r="B263" t="s">
+        <v>373</v>
+      </c>
+      <c r="C263" t="s">
         <v>372</v>
       </c>
-      <c r="B263" t="s">
-        <v>374</v>
-      </c>
-      <c r="C263" t="s">
-        <v>373</v>
-      </c>
       <c r="D263" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E263" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="4"/>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B264" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C264" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D264" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="4"/>
@@ -7260,19 +7260,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B265" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C265" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E265" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="4"/>
@@ -7281,19 +7281,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B266" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C266" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D266" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E266" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="4"/>
@@ -7302,19 +7302,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B267" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C267" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D267" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E267" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="4"/>
@@ -7323,19 +7323,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B268" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C268" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D268" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E268" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="4"/>
@@ -7344,19 +7344,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>379</v>
+      </c>
+      <c r="B269" t="s">
+        <v>381</v>
+      </c>
+      <c r="C269" t="s">
         <v>380</v>
       </c>
-      <c r="B269" t="s">
-        <v>382</v>
-      </c>
-      <c r="C269" t="s">
-        <v>381</v>
-      </c>
       <c r="D269" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E269" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="4"/>
@@ -7365,19 +7365,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B270" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C270" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D270" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E270" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="4"/>
@@ -7386,19 +7386,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B271" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C271" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D271" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E271" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="4"/>
@@ -7407,19 +7407,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B272" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C272" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D272" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E272" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="4"/>
@@ -7428,19 +7428,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C273" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D273" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E273" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="4"/>
@@ -7449,19 +7449,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>386</v>
+      </c>
+      <c r="B274" t="s">
+        <v>388</v>
+      </c>
+      <c r="C274" t="s">
         <v>387</v>
       </c>
-      <c r="B274" t="s">
-        <v>389</v>
-      </c>
-      <c r="C274" t="s">
-        <v>388</v>
-      </c>
       <c r="D274" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E274" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="4"/>
@@ -7470,19 +7470,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C275" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D275" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E275" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="4"/>
@@ -7491,19 +7491,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B276" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C276" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D276" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E276" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="4"/>
@@ -7512,19 +7512,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B277" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C277" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D277" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E277" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="4"/>
@@ -7533,19 +7533,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B278" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C278" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D278" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E278" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="4"/>
@@ -7554,19 +7554,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>393</v>
+      </c>
+      <c r="B279" t="s">
+        <v>395</v>
+      </c>
+      <c r="C279" t="s">
         <v>394</v>
       </c>
-      <c r="B279" t="s">
-        <v>396</v>
-      </c>
-      <c r="C279" t="s">
-        <v>395</v>
-      </c>
       <c r="D279" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E279" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="4"/>

--- a/manga_data.xlsx
+++ b/manga_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC743DA8-C97A-43B8-B230-5F1E47F1CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBEFAE-351B-44C4-B9C8-9098ACD483AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A9C0FA58-2F2A-439D-ADBD-849A6096B984}"/>
   </bookViews>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF20870-90B1-497D-8068-BEE06F7544DF}">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
